--- a/biology/Biologie cellulaire et moléculaire/Base_de_données_ADN_du_Royaume-Uni/Base_de_données_ADN_du_Royaume-Uni.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Base_de_données_ADN_du_Royaume-Uni/Base_de_données_ADN_du_Royaume-Uni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Base_de_donn%C3%A9es_ADN_du_Royaume-Uni</t>
+          <t>Base_de_données_ADN_du_Royaume-Uni</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Base de données ADN du Royaume-Uni était à la fin 2006 le plus important fichier d'échantillons ADN au monde. Les échantillons collectés sont issus aussi bien des scènes de crimes que des suspects. La technique de prélèvements utilisée a été inventée par le généticien Alec Jeffreys.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Base_de_donn%C3%A9es_ADN_du_Royaume-Uni</t>
+          <t>Base_de_données_ADN_du_Royaume-Uni</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé en avril 1985, il est géré par le Forensic Science Service (FSS) et sa base de données comptait en juin 2006 plus de 3 millions de personnes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé en avril 1985, il est géré par le Forensic Science Service (FSS) et sa base de données comptait en juin 2006 plus de 3 millions de personnes.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Base_de_donn%C3%A9es_ADN_du_Royaume-Uni</t>
+          <t>Base_de_données_ADN_du_Royaume-Uni</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Volume</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En novembre 2009, ce fichier contenait 4,8 millions de profils environ[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En novembre 2009, ce fichier contenait 4,8 millions de profils environ.
 </t>
         </is>
       </c>
